--- a/example/mp_reports_UKP_26.05.2018-3.20.58.408_500_items/uncorreled_500.xlsx
+++ b/example/mp_reports_UKP_26.05.2018-3.20.58.408_500_items/uncorreled_500.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Elapsed Time (ms)</t>
   </si>
@@ -80,9 +80,6 @@
     <t>best algorithm occurences from 30 instances</t>
   </si>
   <si>
-    <t xml:space="preserve"> max deviation</t>
-  </si>
-  <si>
     <t>Min Elapsed Time</t>
   </si>
   <si>
@@ -100,11 +97,21 @@
   <si>
     <t>Probability, when BB is efficient and upper bound is not achieved</t>
   </si>
+  <si>
+    <t>GA avg deviation</t>
+  </si>
+  <si>
+    <t>GA max deviation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.000000%"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,12 +142,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,10 +467,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -2420,8 +2429,8 @@
         <f>"*" &amp; F2 &amp; "*"</f>
         <v>*GA*</v>
       </c>
-      <c r="B40" s="2">
-        <f t="shared" si="3"/>
+      <c r="B40" s="4">
+        <f>COUNTIF($H$3:$H$32,A40)/$B$33</f>
         <v>0</v>
       </c>
     </row>
@@ -2458,25 +2467,29 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46">
+      <c r="A46" s="3">
+        <f>AVERAGE(S3:S32)</f>
+        <v>3.4614748244594991E-5</v>
+      </c>
+      <c r="B46" s="3">
         <f>MAX(S3:S32)</f>
         <v>6.2607870265017206E-4</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2491,10 +2504,10 @@
     </row>
     <row r="49" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
